--- a/Data/EC/NIT-9013835754.xlsx
+++ b/Data/EC/NIT-9013835754.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B602827-F565-44C3-B6A4-AF3709202B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89F5E0E-4E06-40FA-A625-70F977D2695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{721380AE-F622-4693-8557-1765713584FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8ADACE6C-2C00-4907-B229-8232E5EFCADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,103 +65,103 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73184616</t>
+  </si>
+  <si>
+    <t>HENRY HERNANDEZ PRIMERA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1047433490</t>
+  </si>
+  <si>
+    <t>ESTIVEN ALEXANDER MARIN CARMONA</t>
+  </si>
+  <si>
+    <t>1148434431</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO MASTRASCUSA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>15681245</t>
+  </si>
+  <si>
+    <t>AQUILES ORTIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>73115909</t>
+  </si>
+  <si>
+    <t>GUSTAVO FANEITE PEREZ</t>
+  </si>
+  <si>
     <t>1047424130</t>
   </si>
   <si>
     <t>OSNAIDER SALAS DIAZ</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>73184616</t>
-  </si>
-  <si>
-    <t>HENRY HERNANDEZ PRIMERA</t>
-  </si>
-  <si>
     <t>1048607162</t>
   </si>
   <si>
     <t>ALVARO ENRIQUE MONTERO NARVAEZ</t>
   </si>
   <si>
-    <t>1047433490</t>
-  </si>
-  <si>
-    <t>ESTIVEN ALEXANDER MARIN CARMONA</t>
-  </si>
-  <si>
-    <t>1148434431</t>
-  </si>
-  <si>
-    <t>JORGE ALBERTO MASTRASCUSA VILLALOBOS</t>
-  </si>
-  <si>
-    <t>73115909</t>
-  </si>
-  <si>
-    <t>GUSTAVO FANEITE PEREZ</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>15681245</t>
-  </si>
-  <si>
-    <t>AQUILES ORTIZ LOPEZ</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t>1131104893</t>
+  </si>
+  <si>
+    <t>BENJAMIN ENRIQUE HERRERA DIAZ</t>
+  </si>
+  <si>
+    <t>18810088</t>
+  </si>
+  <si>
+    <t>BENJAMIN ENRIQUE HERRERA SOLAR</t>
+  </si>
+  <si>
+    <t>92228882</t>
+  </si>
+  <si>
+    <t>EDWIN DE JESUS HERRERA SOLAR</t>
+  </si>
+  <si>
+    <t>1131104611</t>
+  </si>
+  <si>
+    <t>ALEXANDER ARIAS MORELO</t>
+  </si>
+  <si>
+    <t>15621880</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO MENDOZA CANTERO</t>
   </si>
   <si>
     <t>15617913</t>
   </si>
   <si>
     <t>ANTONIO ENRIQUE MALO SOLAR</t>
-  </si>
-  <si>
-    <t>1131104611</t>
-  </si>
-  <si>
-    <t>ALEXANDER ARIAS MORELO</t>
-  </si>
-  <si>
-    <t>15621880</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO MENDOZA CANTERO</t>
-  </si>
-  <si>
-    <t>1131104893</t>
-  </si>
-  <si>
-    <t>BENJAMIN ENRIQUE HERRERA DIAZ</t>
-  </si>
-  <si>
-    <t>92228882</t>
-  </si>
-  <si>
-    <t>EDWIN DE JESUS HERRERA SOLAR</t>
-  </si>
-  <si>
-    <t>18810088</t>
-  </si>
-  <si>
-    <t>BENJAMIN ENRIQUE HERRERA SOLAR</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C14150-DF13-2F9D-7E0A-DBBFD6317E16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B61FA-4A1A-FE59-2982-4FE45CE31FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910576AE-F049-44C9-A56A-B60ACF63C67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC3671-C71E-42CF-A391-90B5748EAE83}">
   <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1118,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1141,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1164,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1210,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1233,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1256,16 +1256,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1279,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1377,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1417,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G30" s="18">
         <v>877803</v>
@@ -1446,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1538,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1578,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G37" s="18">
         <v>877803</v>
@@ -1601,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1647,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G40" s="18">
         <v>877803</v>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1739,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1785,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1808,16 +1808,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G47" s="18">
         <v>877803</v>
@@ -1831,16 +1831,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
-        <v>31601</v>
+        <v>35112</v>
       </c>
       <c r="G48" s="18">
         <v>877803</v>
@@ -1854,13 +1854,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1877,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1900,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1923,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1946,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1969,16 +1969,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G54" s="18">
         <v>877803</v>
@@ -1992,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2021,7 +2021,7 @@
         <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2038,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2061,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2084,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2107,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G61" s="18">
         <v>877803</v>
@@ -2153,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2176,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2199,16 +2199,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G64" s="18">
         <v>877803</v>
@@ -2222,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2245,16 +2245,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F66" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
         <v>877803</v>
@@ -2268,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F67" s="18">
         <v>25749</v>
@@ -2291,16 +2291,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F68" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G68" s="18">
         <v>877803</v>
@@ -2314,16 +2314,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F69" s="18">
-        <v>25749</v>
+        <v>31601</v>
       </c>
       <c r="G69" s="18">
         <v>877803</v>
@@ -2337,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
         <v>25749</v>
@@ -2360,16 +2360,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F71" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G71" s="18">
         <v>877803</v>
@@ -2383,16 +2383,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F72" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
         <v>877803</v>
@@ -2406,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
         <v>25749</v>
@@ -2429,16 +2429,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G74" s="18">
         <v>877803</v>
@@ -2452,16 +2452,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F75" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G75" s="18">
         <v>877803</v>
@@ -2475,13 +2475,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>25749</v>
@@ -2498,16 +2498,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F77" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2521,16 +2521,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F78" s="24">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G78" s="24">
         <v>877803</v>

--- a/Data/EC/NIT-9013835754.xlsx
+++ b/Data/EC/NIT-9013835754.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89F5E0E-4E06-40FA-A625-70F977D2695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164D3324-A974-4164-A18C-43BFF32AC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8ADACE6C-2C00-4907-B229-8232E5EFCADC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D927935A-F8F9-44D5-B2C0-9F5895182758}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,97 +71,97 @@
     <t>HENRY HERNANDEZ PRIMERA</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1047433490</t>
+  </si>
+  <si>
+    <t>ESTIVEN ALEXANDER MARIN CARMONA</t>
+  </si>
+  <si>
+    <t>1148434431</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO MASTRASCUSA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>73115909</t>
+  </si>
+  <si>
+    <t>GUSTAVO FANEITE PEREZ</t>
+  </si>
+  <si>
+    <t>1047424130</t>
+  </si>
+  <si>
+    <t>OSNAIDER SALAS DIAZ</t>
+  </si>
+  <si>
+    <t>1048607162</t>
+  </si>
+  <si>
+    <t>ALVARO ENRIQUE MONTERO NARVAEZ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>15681245</t>
+  </si>
+  <si>
+    <t>AQUILES ORTIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1131104893</t>
+  </si>
+  <si>
+    <t>BENJAMIN ENRIQUE HERRERA DIAZ</t>
+  </si>
+  <si>
+    <t>18810088</t>
+  </si>
+  <si>
+    <t>BENJAMIN ENRIQUE HERRERA SOLAR</t>
+  </si>
+  <si>
+    <t>92228882</t>
+  </si>
+  <si>
+    <t>EDWIN DE JESUS HERRERA SOLAR</t>
+  </si>
+  <si>
+    <t>1131104611</t>
+  </si>
+  <si>
+    <t>ALEXANDER ARIAS MORELO</t>
+  </si>
+  <si>
+    <t>15621880</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO MENDOZA CANTERO</t>
+  </si>
+  <si>
+    <t>15617913</t>
+  </si>
+  <si>
+    <t>ANTONIO ENRIQUE MALO SOLAR</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>1047433490</t>
-  </si>
-  <si>
-    <t>ESTIVEN ALEXANDER MARIN CARMONA</t>
-  </si>
-  <si>
-    <t>1148434431</t>
-  </si>
-  <si>
-    <t>JORGE ALBERTO MASTRASCUSA VILLALOBOS</t>
-  </si>
-  <si>
-    <t>15681245</t>
-  </si>
-  <si>
-    <t>AQUILES ORTIZ LOPEZ</t>
-  </si>
-  <si>
-    <t>73115909</t>
-  </si>
-  <si>
-    <t>GUSTAVO FANEITE PEREZ</t>
-  </si>
-  <si>
-    <t>1047424130</t>
-  </si>
-  <si>
-    <t>OSNAIDER SALAS DIAZ</t>
-  </si>
-  <si>
-    <t>1048607162</t>
-  </si>
-  <si>
-    <t>ALVARO ENRIQUE MONTERO NARVAEZ</t>
-  </si>
-  <si>
-    <t>1131104893</t>
-  </si>
-  <si>
-    <t>BENJAMIN ENRIQUE HERRERA DIAZ</t>
-  </si>
-  <si>
-    <t>18810088</t>
-  </si>
-  <si>
-    <t>BENJAMIN ENRIQUE HERRERA SOLAR</t>
-  </si>
-  <si>
-    <t>92228882</t>
-  </si>
-  <si>
-    <t>EDWIN DE JESUS HERRERA SOLAR</t>
-  </si>
-  <si>
-    <t>1131104611</t>
-  </si>
-  <si>
-    <t>ALEXANDER ARIAS MORELO</t>
-  </si>
-  <si>
-    <t>15621880</t>
-  </si>
-  <si>
-    <t>JOSE FRANCISCO MENDOZA CANTERO</t>
-  </si>
-  <si>
-    <t>15617913</t>
-  </si>
-  <si>
-    <t>ANTONIO ENRIQUE MALO SOLAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B61FA-4A1A-FE59-2982-4FE45CE31FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E01A95-82BB-6CFE-23B4-BCCCF48FBE38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC3671-C71E-42CF-A391-90B5748EAE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3EB524-6E43-47CC-BC4E-C949E572FB95}">
   <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1118,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1141,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1164,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1187,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1210,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1256,16 +1256,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1279,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1417,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
         <v>877803</v>
@@ -1440,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1492,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1532,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1578,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G37" s="18">
         <v>877803</v>
@@ -1601,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1647,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F40" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G40" s="18">
         <v>877803</v>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1739,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1785,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1808,16 +1808,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G47" s="18">
         <v>877803</v>
@@ -1831,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1854,16 +1854,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>35112</v>
+        <v>31601</v>
       </c>
       <c r="G49" s="18">
         <v>877803</v>
@@ -1877,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1900,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1923,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1946,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -1969,16 +1969,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F54" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G54" s="18">
         <v>877803</v>
@@ -1992,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2015,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2038,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2061,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2084,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2113,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2136,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G61" s="18">
         <v>877803</v>
@@ -2153,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2176,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2199,16 +2199,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>25749</v>
+        <v>35112</v>
       </c>
       <c r="G64" s="18">
         <v>877803</v>
@@ -2222,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2245,16 +2245,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G66" s="18">
         <v>877803</v>
@@ -2268,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F67" s="18">
         <v>25749</v>
@@ -2291,16 +2291,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G68" s="18">
         <v>877803</v>
@@ -2314,16 +2314,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
-        <v>31601</v>
+        <v>25749</v>
       </c>
       <c r="G69" s="18">
         <v>877803</v>
@@ -2337,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>25749</v>
@@ -2360,16 +2360,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G71" s="18">
         <v>877803</v>
@@ -2383,16 +2383,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G72" s="18">
         <v>877803</v>
@@ -2406,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>25749</v>
@@ -2429,16 +2429,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G74" s="18">
         <v>877803</v>
@@ -2452,16 +2452,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G75" s="18">
         <v>877803</v>
@@ -2475,13 +2475,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>25749</v>
@@ -2498,16 +2498,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G77" s="18">
         <v>877803</v>
@@ -2521,16 +2521,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D78" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="22" t="s">
-        <v>13</v>
-      </c>
       <c r="F78" s="24">
-        <v>35112</v>
+        <v>25749</v>
       </c>
       <c r="G78" s="24">
         <v>877803</v>
